--- a/config_multi.xls/bj_pair.xlsx
+++ b/config_multi.xls/bj_pair.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0890844-12A4-4AAF-B77A-F2E226D1B166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43FA54B-3A69-4B75-9F29-9011BD138D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="2550" windowWidth="21600" windowHeight="11445" tabRatio="440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bj_pair" sheetId="2" r:id="rId1"/>
@@ -124,7 +124,8 @@
     <t>p10</t>
   </si>
   <si>
-    <t>p11</t>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,7 +521,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -881,7 +882,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
